--- a/data/trans_camb/P7B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7B_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,89</t>
+          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 15,07</t>
+          <t>-8,19; 11,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 12,02</t>
+          <t>-5,27; 13,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 2,42</t>
+          <t>-5,63; 11,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 17,28</t>
+          <t>-7,83; 13,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 9,38</t>
+          <t>-8,69; 10,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 10,85</t>
+          <t>-9,43; 8,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 8,92</t>
+          <t>-4,53; 10,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 12,94</t>
+          <t>-3,02; 9,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,02</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 8,97</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 4,0</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>3,12; 13,18</t>
+          <t>-4,72; 7,95</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,58%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>22,81%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-0,85%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>43,0%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 80,17</t>
+          <t>-47,04; 138,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 67,9</t>
+          <t>-29,31; 172,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 13,61</t>
+          <t>-30,34; 146,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 93,44</t>
+          <t>-32,92; 103,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 72,65</t>
+          <t>-33,2; 79,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 86,26</t>
+          <t>-35,07; 70,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 71,65</t>
+          <t>-22,02; 82,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 105,72</t>
+          <t>-14,9; 80,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 59,47</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 54,49</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-23,49; 24,53</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>14,92; 86,15</t>
+          <t>-23,04; 64,48</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
           <t>-0,82</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 5,94</t>
+          <t>-8,69; 9,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,57</t>
+          <t>-7,02; 10,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 5,79</t>
+          <t>-8,8; 8,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,87</t>
+          <t>-5,03; 10,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 6,31</t>
+          <t>-6,3; 7,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,97</t>
+          <t>-9,22; 4,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,85</t>
+          <t>-4,93; 7,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 10,42</t>
+          <t>-4,4; 6,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 4,21</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 4,34</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 2,95</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 6,0</t>
+          <t>-6,36; 4,35</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>-5,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
           <t>-2,24%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 18,75</t>
+          <t>-23,11; 32,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 17,54</t>
+          <t>-18,39; 34,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 17,94</t>
+          <t>-21,35; 29,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 18,66</t>
+          <t>-11,57; 28,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 16,94</t>
+          <t>-14,03; 22,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 16,54</t>
+          <t>-20,2; 12,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 10,86</t>
+          <t>-12,3; 22,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 28,62</t>
+          <t>-11,29; 19,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 12,16</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 12,56</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-13,49; 8,33</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 17,13</t>
+          <t>-15,67; 13,01</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-9,1</t>
+          <t>-2,06</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 6,51</t>
+          <t>-7,51; 10,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 3,04</t>
+          <t>-11,66; 6,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 3,41</t>
+          <t>-11,32; 5,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -0,27</t>
+          <t>-6,98; 9,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 7,24</t>
+          <t>-7,89; 7,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 7,22</t>
+          <t>-8,43; 5,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,45</t>
+          <t>-5,85; 7,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -1,21</t>
+          <t>-7,48; 4,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 5,21</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 3,2</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 3,32</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-15,14; -2,85</t>
+          <t>-7,64; 3,6</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,82%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,2%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-3,73%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-3,1%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-22,29%</t>
+          <t>-4,97%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 19,54</t>
+          <t>-17,39; 32,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 8,98</t>
+          <t>-26,39; 19,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 10,24</t>
+          <t>-25,91; 15,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 0,82</t>
+          <t>-14,0; 25,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 17,95</t>
+          <t>-15,8; 18,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 18,02</t>
+          <t>-16,92; 14,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 16,23</t>
+          <t>-13,29; 20,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,14; -2,62</t>
+          <t>-16,39; 12,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 13,33</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; 8,19</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; 8,66</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-35,21; -7,32</t>
+          <t>-16,89; 9,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>-0,91</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 4,46</t>
+          <t>-5,34; 7,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,97</t>
+          <t>-7,66; 6,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 3,45</t>
+          <t>-7,52; 2,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 5,39</t>
+          <t>-5,98; 5,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,71</t>
+          <t>-4,68; 3,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 3,03</t>
+          <t>-5,1; 4,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,63</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 2,67</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 1,42</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 2,01</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-3,57%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-2,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 14,03</t>
+          <t>-14,6; 23,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 9,61</t>
+          <t>-20,54; 21,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 3,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 10,8</t>
+          <t>-21,46; 9,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 16,12</t>
+          <t>-17,61; 18,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 12,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 11,27</t>
+          <t>-13,41; 10,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 9,2</t>
+          <t>-14,8; 13,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 10,87</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 8,15</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 4,47</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; 6,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 4,77</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 2,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 1,31</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 4,57</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 4,85</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 3,66</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 3,45</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 2,69</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-7,98%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,32; 15,3</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,18; 8,53</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-19,53; 4,66</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 13,91</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 14,75</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 11,12</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 10,33</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 8,21</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,08; 4,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
